--- a/aivo/aivo_import_table.xlsx
+++ b/aivo/aivo_import_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Neurotiede/aivo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB97E3-C63B-2C4F-9404-44A6078DC7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9835B265-58E5-5742-843D-5BC591E0911C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{290A065E-51EE-C047-9C78-BC376C203E09}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>patient_id</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>tracer</t>
-  </si>
-  <si>
-    <t>frames</t>
   </si>
   <si>
     <t>start_time</t>
@@ -442,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB257A5-8241-9F4E-ABF1-7CB3F42A3183}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,20 +455,19 @@
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,9 +521,6 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/aivo/aivo_import_table.xlsx
+++ b/aivo/aivo_import_table.xlsx
@@ -5,33 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Neurotiede/aivo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megavemputin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9835B265-58E5-5742-843D-5BC591E0911C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C992BCFD-C025-8B44-B3A7-E9BDB02CD4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{290A065E-51EE-C047-9C78-BC376C203E09}"/>
+    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>patient_id</t>
   </si>
@@ -57,6 +51,9 @@
     <t>tracer</t>
   </si>
   <si>
+    <t>frames</t>
+  </si>
+  <si>
     <t>start_time</t>
   </si>
   <si>
@@ -85,16 +82,32 @@
   </si>
   <si>
     <t>hct</t>
+  </si>
+  <si>
+    <t>handedness</t>
+  </si>
+  <si>
+    <t>smoker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,9 +133,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,36 +478,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB257A5-8241-9F4E-ABF1-7CB3F42A3183}">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="7"/>
+    <col min="21" max="21" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,51 +519,222 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="J3" s="6"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="J4" s="6"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="J5" s="6"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="J6" s="6"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="J7" s="6"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="12"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="12"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="J10" s="6"/>
+      <c r="L10" s="12"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="J11" s="6"/>
+      <c r="L11" s="12"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="J12" s="6"/>
+      <c r="L12" s="12"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="J13" s="6"/>
+      <c r="L13" s="12"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="J14" s="6"/>
+      <c r="L14" s="12"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="J15" s="6"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="J16" s="6"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="J17" s="6"/>
+      <c r="L17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="J18" s="6"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="J19" s="6"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
